--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60560A-689A-4088-8272-622485B2F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F93BD4-B666-462C-8CFD-C9B470DE8BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{741843F9-D66D-4A1A-B8B5-02B512008BDD}"/>
   </bookViews>
   <sheets>
-    <sheet name="reporte_general01-06-24" sheetId="1" r:id="rId1"/>
+    <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-06-01.</t>
+    <t>De 2024-01-01 al 2024-06-15.</t>
   </si>
   <si>
     <t>No.</t>
@@ -58,31 +58,28 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>645 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">510, 547, 635, </t>
-  </si>
-  <si>
-    <t>43,595,</t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,597,609,611,620,622,</t>
+    <t>683 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547, 680, 682, </t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">71, 131, 278, 342, 371, 391, 419, 422, 426, 447, 451, 458, 459, 462, 478, 481, 521, 531, 537, 559, 599, 619, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,81,97,121,122,126,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,344,350,368,369,375,385,366,398,399,418,441,443,449,455,476,480,579,601,605,606,612,615,621,638,639,641,642,</t>
+    <t xml:space="preserve">131, 278, 342, 419, 422, 531, 619, 658, 678, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,344,350,368,369,371,375,385,366,391,398,399,418,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,537,559,579,599,601,605,606,612,615,621,638,639,641,642,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,</t>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
@@ -91,55 +88,58 @@
     <t xml:space="preserve">553, </t>
   </si>
   <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,</t>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t>190,259,350,476,509,641,</t>
+    <t>190,259,350,476,509,641,655,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">625, 636, 646, </t>
-  </si>
-  <si>
-    <t>578,</t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,588,604,623,628,</t>
+    <t xml:space="preserve">625, 655, 671, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 449, 476, 598, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,470,608,</t>
+    <t xml:space="preserve">9, 449, </t>
+  </si>
+  <si>
+    <t>476,</t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,470,598,608,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>639 , 641 , 642 , 644 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 34, 167, 407, 417, 429, 452, 554, 581, 583, 586, 591, 603, 617, 630, 638, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,419,427,430,442,443,455,476,477,479,496,511,517,520,535,549,601,613,614,627,</t>
+    <t>685 , 686 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 34, 167, 603, 644, 657, 659, 675, </t>
+  </si>
+  <si>
+    <t>417,429,</t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,419,427,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,613,614,617,627,630,638,639,641,642,669,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
-    <t xml:space="preserve">476, 621, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,499,531,578,</t>
+    <t xml:space="preserve">476, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,499,531,578,621,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
@@ -151,27 +151,30 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>505 , 526 , 528 , 584 , 607 , 618 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341, 354, 389, 405, 413, 476, 527, 570, 580, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,350,359,283,374,376,377,404,443,485,</t>
+    <t>673 , 675 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">584, 626, 631, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,</t>
+    <t xml:space="preserve">626, 631, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
+    <t>684 ,</t>
+  </si>
+  <si>
     <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,</t>
   </si>
   <si>
@@ -181,7 +184,7 @@
     <t xml:space="preserve">592, </t>
   </si>
   <si>
-    <t>53,132,142,190,235,248,350,370,385,476,613,629,</t>
+    <t>53,132,142,190,235,248,350,370,385,476,613,629,653,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
@@ -193,43 +196,34 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">544, 609, 611, 633, 634, </t>
+    <t xml:space="preserve">677, 680, </t>
   </si>
   <si>
     <t>125,</t>
   </si>
   <si>
-    <t>13,21,25,27,55,61,63,65,92,119,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,577,620,</t>
+    <t>13,21,25,27,55,61,63,65,92,119,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">435, 610, 633, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,436,476,490,519,523,556,563,585,634,</t>
+    <t xml:space="preserve">435, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,436,476,490,519,523,556,563,585,610,633,634,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
   </si>
   <si>
-    <t xml:space="preserve">492, </t>
-  </si>
-  <si>
-    <t>634,</t>
-  </si>
-  <si>
-    <t>66,188,190,245,350,443,476,516,538,633,</t>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
-    <t>633,634,</t>
-  </si>
-  <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,</t>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
@@ -259,16 +253,13 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t xml:space="preserve">636, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,</t>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">210, 529, </t>
+    <t xml:space="preserve">210, 529, 677, </t>
   </si>
   <si>
     <t>136,190,350,355,471,476,</t>
@@ -316,7 +307,13 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,</t>
+    <t>685 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">659, </t>
+  </si>
+  <si>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,669,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -352,10 +349,7 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">637, 641, 643, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,642,</t>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1007,10 +1001,10 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,11 +1400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62CB14B-0B5C-4E94-9C18-6EC31E5032E1}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1418,9 +1412,9 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -1484,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1496,7 +1490,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1544,45 +1538,43 @@
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7">
+        <v>134</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="7">
-        <v>125</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="72.5">
+    </row>
+    <row r="7" spans="1:10" ht="87">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="7">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.5">
@@ -1590,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1605,10 +1597,10 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72.5">
@@ -1616,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -1625,18 +1617,18 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>22</v>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1644,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1659,10 +1651,10 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29">
@@ -1670,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1680,19 +1672,17 @@
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7">
+        <v>22</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1700,60 +1690,64 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7">
-        <v>10</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="72.5">
+    </row>
+    <row r="13" spans="1:10" ht="87">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="10">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10">
-        <v>16</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="12">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6"/>
       <c r="I13" s="7">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29">
+    <row r="14" spans="1:10" ht="43.5">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1765,9 +1759,9 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="6">
@@ -1775,7 +1769,7 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>39</v>
@@ -1807,7 +1801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29">
+    <row r="16" spans="1:10" ht="43.5">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -1815,13 +1809,13 @@
         <v>42</v>
       </c>
       <c r="C16" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>44</v>
@@ -1831,7 +1825,7 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>45</v>
@@ -1849,7 +1843,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>47</v>
@@ -1859,7 +1853,7 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>48</v>
@@ -1872,10 +1866,12 @@
       <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
@@ -1888,15 +1884,15 @@
         <v>21</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1905,18 +1901,18 @@
       <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>52</v>
+      <c r="F19" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1924,7 +1920,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1942,37 +1938,39 @@
         <v>5</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="72.5">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E21" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="11">
+        <v>58</v>
+      </c>
+      <c r="G21" s="12">
         <v>1</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>58</v>
+      <c r="H21" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="I21" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5">
@@ -1980,27 +1978,27 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>3</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2008,29 +2006,25 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7">
+        <v>12</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="I23" s="7">
-        <v>10</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2038,7 +2032,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -2047,20 +2041,18 @@
       <c r="E24" s="10">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="11">
-        <v>2</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="F24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2068,7 +2060,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -2086,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2094,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -2112,7 +2104,7 @@
         <v>11</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2120,7 +2112,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2138,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2146,7 +2138,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2164,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2172,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2190,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2198,27 +2190,25 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6"/>
       <c r="G30" s="6">
         <v>0</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2226,17 +2216,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2246,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2254,7 +2244,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2272,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2280,7 +2270,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2298,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2306,7 +2296,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -2330,7 +2320,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2354,7 +2344,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -2378,7 +2368,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -2402,7 +2392,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2426,7 +2416,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2450,7 +2440,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -2474,7 +2464,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2498,7 +2488,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -2522,25 +2512,29 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2548,19 +2542,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="10">
         <v>4</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -2570,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2578,19 +2572,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="8">
         <v>2</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="10">
         <v>6</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2600,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2608,7 +2602,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2626,35 +2620,33 @@
         <v>10</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="203">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="232">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="10">
-        <v>3</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
       <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="7">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2672,22 +2664,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>870</v>
+        <v>958</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2698,13 +2690,17 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00645-2024-793_202405311342.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F19" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00592-2024-ssdm_202405141829.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F23" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00492-2024-593_202404152052.pdf" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F24" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F30" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00636-2024-785_202405281929.pdf" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D44" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00281-2024-207_202402281141.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00683-2024-860_202406141919.pdf" xr:uid="{D1A7412E-B105-42B1-B4F4-0805C3BE9BAD}"/>
+    <hyperlink ref="F9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{84D4D69A-CCE1-4E5D-BD84-715E72BF1ECF}"/>
+    <hyperlink ref="F14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00476-2024-CIRCULARSP02.pdf" xr:uid="{B81F079F-68D1-4599-8F49-41271F5B9747}"/>
+    <hyperlink ref="D18" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00684-2024-859_202406141918.pdf" xr:uid="{3F19DF14-3C7C-497F-969D-E4A093EC79D3}"/>
+    <hyperlink ref="F19" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00592-2024-ssdm_202405141829.pdf" xr:uid="{59EDC3BF-09BA-47F0-A7FE-427524FD5EFA}"/>
+    <hyperlink ref="D21" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00683-2024-860_202406141919.pdf" xr:uid="{9C157DA2-176D-49D6-BCF9-B17988A0E051}"/>
+    <hyperlink ref="F22" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00435-2024-514_202404021902.pdf" xr:uid="{BBE68421-84C2-4313-AC49-35A26241D44C}"/>
+    <hyperlink ref="F24" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{A4C35D9B-88AA-4160-9C60-BE25A889709D}"/>
+    <hyperlink ref="D43" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00685-2024-861_202406141919.pdf" xr:uid="{1F7C2DEF-C460-420B-B192-D086B0BE20E2}"/>
+    <hyperlink ref="F43" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00659-2024-93755_202406071119.pdf" xr:uid="{CCD0665D-9BDA-48B1-8FD8-B1A08C542715}"/>
+    <hyperlink ref="D44" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00281-2024-207_202402281141.pdf" xr:uid="{DAE7D02B-3248-491B-9A31-C053DC30C34E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F93BD4-B666-462C-8CFD-C9B470DE8BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57C2606-E84A-4F79-A9C3-A9F79491DE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{741843F9-D66D-4A1A-B8B5-02B512008BDD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D26AE97-4C41-47E9-91CF-F8338B472457}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-06-15.</t>
+    <t>De 2024-01-01 al 2024-06-22.</t>
   </si>
   <si>
     <t>No.</t>
@@ -52,39 +52,45 @@
     <t>SECRETARÍA TÉCNICA DE PRESIDENCIA</t>
   </si>
   <si>
+    <t>710 ,</t>
+  </si>
+  <si>
     <t>350,476,521,</t>
   </si>
   <si>
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>683 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">547, 680, 682, </t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,</t>
+    <t xml:space="preserve">547, 680, 682, 683, 689, 695, 697, 698, 700, 710, </t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,692,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">131, 278, 342, 419, 422, 531, 619, 658, 678, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,344,350,368,369,371,375,385,366,391,398,399,418,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,537,559,579,599,601,605,606,612,615,621,638,639,641,642,</t>
+    <t xml:space="preserve">278, 342, 419, 422, 531, 658, 678, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,344,350,368,369,371,375,385,366,391,398,399,418,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,</t>
+    <t xml:space="preserve">696, </t>
+  </si>
+  <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,710,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
+    <t>707 , 710 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">553, </t>
   </si>
   <si>
@@ -103,39 +109,33 @@
     <t xml:space="preserve">625, 655, 671, </t>
   </si>
   <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,</t>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 449, </t>
-  </si>
-  <si>
-    <t>476,</t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,470,598,608,</t>
+    <t xml:space="preserve">9, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>685 , 686 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 34, 167, 603, 644, 657, 659, 675, </t>
-  </si>
-  <si>
-    <t>417,429,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,419,427,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,613,614,617,627,630,638,639,641,642,669,</t>
+    <t xml:space="preserve">13, 34, 167, 603, 644, 657, 659, 675, 685, 686, 699, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,613,614,617,627,630,638,639,641,642,669,690,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
+    <t>710 , 713 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">476, </t>
   </si>
   <si>
@@ -145,16 +145,19 @@
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
+    <t>710,</t>
+  </si>
+  <si>
     <t>64,80,85,169,190,350,437,476,615,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>673 , 675 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, </t>
+    <t>675 , 703 , 710 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, 673, </t>
   </si>
   <si>
     <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,</t>
@@ -163,6 +166,9 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
+    <t>703 , 705 , 710 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">626, 631, </t>
   </si>
   <si>
@@ -172,46 +178,49 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t>684 ,</t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,</t>
+    <t xml:space="preserve">684, 687, 704, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">592, </t>
-  </si>
-  <si>
-    <t>53,132,142,190,235,248,350,370,385,476,613,629,653,</t>
+    <t>711 ,</t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
   </si>
   <si>
-    <t>190,192,350,438,476,</t>
+    <t xml:space="preserve">691, </t>
+  </si>
+  <si>
+    <t>190,192,350,438,476,710,</t>
   </si>
   <si>
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">677, 680, </t>
-  </si>
-  <si>
-    <t>125,</t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,</t>
+    <t xml:space="preserve">697, 698, 700, 706, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">435, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,436,476,490,519,523,556,563,585,610,633,634,</t>
+    <t>712 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -235,7 +244,10 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,</t>
+    <t xml:space="preserve">695, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,710,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -253,16 +265,16 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,</t>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">210, 529, 677, </t>
-  </si>
-  <si>
-    <t>136,190,350,355,471,476,</t>
+    <t xml:space="preserve">210, 529, </t>
+  </si>
+  <si>
+    <t>136,190,350,355,471,476,677,710,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
@@ -274,6 +286,9 @@
     <t>SÍNDICATURA MUNICIPAL</t>
   </si>
   <si>
+    <t xml:space="preserve">710, </t>
+  </si>
+  <si>
     <t>126,261,</t>
   </si>
   <si>
@@ -307,19 +322,16 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>685 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659, </t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,669,</t>
+    <t>699 , 710 ,</t>
+  </si>
+  <si>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 ,</t>
+    <t>281 , 710 ,</t>
   </si>
   <si>
     <t xml:space="preserve">151, 289, 476, 556, </t>
@@ -331,25 +343,31 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 389 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,476,499,</t>
+    <t>92 , 389 , 710 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 691, 697, 700, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,476,499,698,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t>190,350,453,471,476,506,517,520,556,613,</t>
+    <t>190,350,453,471,476,506,517,520,556,613,710,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,</t>
+    <t>714 , 715 , 716 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">702, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,708,709,710,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -733,13 +751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD8E4BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,10 +1010,10 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,10 +1418,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62CB14B-0B5C-4E94-9C18-6EC31E5032E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B6CF45-12B9-45A7-A197-DB3C6CD6F493}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1412,11 +1430,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1478,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1490,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1500,10 +1518,12 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
@@ -1512,11 +1532,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>3</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
+      <c r="J5" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="159.5">
@@ -1524,16 +1544,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
@@ -1542,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="7">
-        <v>134</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="9">
+        <v>135</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1561,7 +1579,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>16</v>
@@ -1570,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="7">
-        <v>66</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="9">
+        <v>69</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1588,19 +1606,21 @@
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="7">
-        <v>31</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
+      <c r="I8" s="9">
+        <v>33</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72.5">
@@ -1608,27 +1628,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <v>51</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>22</v>
+      <c r="J9" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1636,12 +1658,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
@@ -1650,11 +1674,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <v>7</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>24</v>
+      <c r="J10" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29">
@@ -1662,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1672,79 +1696,77 @@
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="7">
-        <v>22</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" s="9">
+        <v>23</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11</v>
-      </c>
-      <c r="J12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="87">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9">
+        <v>13</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="101.5">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="12">
-        <v>2</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9">
+        <v>77</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>74</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1752,12 +1774,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
       <c r="E14" s="10">
         <v>1</v>
       </c>
@@ -1768,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>25</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1790,15 +1814,17 @@
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7">
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9">
         <v>9</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>41</v>
+      <c r="J15" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.5">
@@ -1806,29 +1832,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="7">
+      <c r="I16" s="9">
         <v>35</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>45</v>
+      <c r="J16" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1836,27 +1862,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="E17" s="10">
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="7">
+      <c r="I17" s="9">
         <v>27</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>48</v>
+      <c r="J17" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29">
@@ -1864,27 +1892,27 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="7">
-        <v>21</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>51</v>
+      <c r="I18" s="9">
+        <v>22</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1892,27 +1920,27 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="7">
-        <v>13</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>54</v>
+      <c r="I19" s="9">
+        <v>16</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1920,25 +1948,27 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6"/>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="G20" s="6">
         <v>0</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="7">
-        <v>5</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>56</v>
+      <c r="I20" s="9">
+        <v>6</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="72.5">
@@ -1946,31 +1976,27 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10">
+        <v>4</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="9">
         <v>57</v>
       </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="12">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="7">
-        <v>51</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>60</v>
+      <c r="J21" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5">
@@ -1978,27 +2004,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E22" s="10">
         <v>1</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="7">
-        <v>29</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>63</v>
+      <c r="I22" s="9">
+        <v>31</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2006,12 +2034,14 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
@@ -2020,11 +2050,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="7">
+      <c r="I23" s="9">
         <v>12</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>65</v>
+      <c r="J23" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2032,27 +2062,29 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E24" s="10">
         <v>1</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="7">
+      <c r="I24" s="9">
         <v>27</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>67</v>
+      <c r="J24" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2060,12 +2092,14 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
@@ -2074,11 +2108,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="7">
+      <c r="I25" s="9">
         <v>3</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>69</v>
+      <c r="J25" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2086,25 +2120,27 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6"/>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="7">
-        <v>11</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>71</v>
+      <c r="I26" s="9">
+        <v>12</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2112,12 +2148,14 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
@@ -2126,11 +2164,11 @@
         <v>0</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="7">
+      <c r="I27" s="9">
         <v>3</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>69</v>
+      <c r="J27" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2138,7 +2176,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2148,15 +2186,17 @@
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="7">
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="9">
         <v>6</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>74</v>
+      <c r="J28" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2164,7 +2204,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2174,15 +2214,17 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7">
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="9">
         <v>3</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>69</v>
+      <c r="J29" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2190,12 +2232,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E30" s="6">
         <v>0</v>
       </c>
@@ -2204,11 +2248,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="7">
-        <v>27</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>77</v>
+      <c r="I30" s="9">
+        <v>28</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2216,27 +2260,27 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="7">
-        <v>6</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>80</v>
+      <c r="I31" s="9">
+        <v>8</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2244,12 +2288,14 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
@@ -2258,11 +2304,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="7">
+      <c r="I32" s="9">
         <v>4</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>82</v>
+      <c r="J32" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2270,25 +2316,27 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6"/>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="7">
+      <c r="I33" s="9">
         <v>2</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>84</v>
+      <c r="J33" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2296,12 +2344,14 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E34" s="6">
         <v>0</v>
       </c>
@@ -2320,12 +2370,14 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
@@ -2344,12 +2396,14 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
@@ -2368,12 +2422,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
@@ -2392,12 +2448,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
@@ -2416,12 +2474,14 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
@@ -2440,12 +2500,14 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E40" s="6">
         <v>0</v>
       </c>
@@ -2464,12 +2526,14 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
@@ -2488,12 +2552,14 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E42" s="6">
         <v>0</v>
       </c>
@@ -2512,29 +2578,27 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>96</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="7">
-        <v>31</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>97</v>
+      <c r="I43" s="9">
+        <v>33</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2542,29 +2606,29 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="E44" s="10">
         <v>4</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
-      <c r="I44" s="7">
+      <c r="I44" s="9">
         <v>9</v>
       </c>
-      <c r="J44" s="7" t="s">
-        <v>101</v>
+      <c r="J44" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2572,29 +2636,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E45" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="7">
-        <v>8</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>105</v>
+      <c r="I45" s="9">
+        <v>9</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2602,12 +2666,14 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E46" s="6">
         <v>0</v>
       </c>
@@ -2616,11 +2682,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="7">
-        <v>10</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>107</v>
+      <c r="I46" s="9">
+        <v>11</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="232">
@@ -2628,25 +2694,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="7">
-        <v>182</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>109</v>
+      <c r="I47" s="9">
+        <v>188</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2664,22 +2734,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C49" s="6">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>958</v>
+        <v>997</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2690,17 +2760,38 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00683-2024-860_202406141919.pdf" xr:uid="{D1A7412E-B105-42B1-B4F4-0805C3BE9BAD}"/>
-    <hyperlink ref="F9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{84D4D69A-CCE1-4E5D-BD84-715E72BF1ECF}"/>
-    <hyperlink ref="F14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00476-2024-CIRCULARSP02.pdf" xr:uid="{B81F079F-68D1-4599-8F49-41271F5B9747}"/>
-    <hyperlink ref="D18" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00684-2024-859_202406141918.pdf" xr:uid="{3F19DF14-3C7C-497F-969D-E4A093EC79D3}"/>
-    <hyperlink ref="F19" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00592-2024-ssdm_202405141829.pdf" xr:uid="{59EDC3BF-09BA-47F0-A7FE-427524FD5EFA}"/>
-    <hyperlink ref="D21" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00683-2024-860_202406141919.pdf" xr:uid="{9C157DA2-176D-49D6-BCF9-B17988A0E051}"/>
-    <hyperlink ref="F22" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00435-2024-514_202404021902.pdf" xr:uid="{BBE68421-84C2-4313-AC49-35A26241D44C}"/>
-    <hyperlink ref="F24" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{A4C35D9B-88AA-4160-9C60-BE25A889709D}"/>
-    <hyperlink ref="D43" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00685-2024-861_202406141919.pdf" xr:uid="{1F7C2DEF-C460-420B-B192-D086B0BE20E2}"/>
-    <hyperlink ref="F43" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00659-2024-93755_202406071119.pdf" xr:uid="{CCD0665D-9BDA-48B1-8FD8-B1A08C542715}"/>
-    <hyperlink ref="D44" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00281-2024-207_202402281141.pdf" xr:uid="{DAE7D02B-3248-491B-9A31-C053DC30C34E}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{991CAC63-4F4E-4A15-8844-C6458508DC10}"/>
+    <hyperlink ref="F8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00696-2024-878_202406181921.pdf" xr:uid="{9E73F310-791F-4DD3-A8B8-4772F32007EB}"/>
+    <hyperlink ref="F9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{9B8F0C24-73B9-4373-A7A5-C2BC8F19E19A}"/>
+    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{DC432FE8-0AB9-497B-830E-4CC86C75AD91}"/>
+    <hyperlink ref="D12" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3BC53104-49E3-479D-A2FB-0E5B2743DB14}"/>
+    <hyperlink ref="F12" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{273CCEE8-E120-4CD1-BDA2-6A0D84F41B95}"/>
+    <hyperlink ref="D13" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C6782607-D840-489E-995F-282934F765A5}"/>
+    <hyperlink ref="F14" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00476-2024-CIRCULARSP02.pdf" xr:uid="{27165C29-2F28-4025-8B33-AE6DB531060D}"/>
+    <hyperlink ref="D19" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00711-2024-discontralamujer_202406211913.pdf" xr:uid="{DE009BDB-71D2-4DF1-B524-8F7F12A2CFA0}"/>
+    <hyperlink ref="F20" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{B8B663F4-4739-4EEA-8B50-A085D43A5C2B}"/>
+    <hyperlink ref="D22" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00712-2024-5588_202406211914.pdf" xr:uid="{9B5B69BA-D38E-412B-808A-08CCF6C74425}"/>
+    <hyperlink ref="F22" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00701-2024-quincuagesima_202406191359.pdf" xr:uid="{B1254937-E468-4DDC-B134-E93E561C2647}"/>
+    <hyperlink ref="D23" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C4BB0C75-77FE-4B14-81AA-42E349A45732}"/>
+    <hyperlink ref="D24" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{93891EF9-BD48-491F-A7A9-16B52FFB9944}"/>
+    <hyperlink ref="F24" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{8041D621-632A-41FC-A94D-2D51FF1402F0}"/>
+    <hyperlink ref="D25" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{7FFC2CD4-B416-4127-A1C7-77328058CC1A}"/>
+    <hyperlink ref="F26" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00695-2024-876_202406181919.pdf" xr:uid="{C5604454-E3AB-4D5B-830B-8459F8C7ACB0}"/>
+    <hyperlink ref="D27" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{2CAF52E1-7D50-4154-A7BD-D6259D07E7F5}"/>
+    <hyperlink ref="D30" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00712-2024-5588_202406211914.pdf" xr:uid="{79CA50FA-4A44-480F-9FB6-495C57F8A2F5}"/>
+    <hyperlink ref="D32" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{81E630A0-4D75-4EB8-9C3F-9110CD96A8D3}"/>
+    <hyperlink ref="F33" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{43E60398-F06A-4032-8FC8-387775BD001D}"/>
+    <hyperlink ref="D34" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D7979079-4113-4C2C-9CDE-4EEA25055E3B}"/>
+    <hyperlink ref="D35" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{550B1C46-3249-4813-B466-BD70C1849E62}"/>
+    <hyperlink ref="D36" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{4026D9D4-2A9F-48AE-9307-DC4FE4E563D4}"/>
+    <hyperlink ref="D37" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{FCC30FD0-C388-4AC0-B4A7-AE2592E19B2A}"/>
+    <hyperlink ref="D38" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{F9108E9D-AC84-4699-B5FD-236CECF7CF5E}"/>
+    <hyperlink ref="D39" r:id="rId27" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EFFD251B-6D86-4C20-9D28-CC8AA7C9B16F}"/>
+    <hyperlink ref="D40" r:id="rId28" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{ABC463D0-7DD4-46C4-96C4-1F388DD3C8DE}"/>
+    <hyperlink ref="D41" r:id="rId29" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{665BB385-0B34-448A-9423-09586224A9E2}"/>
+    <hyperlink ref="D42" r:id="rId30" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{94CD69E0-D7B0-4426-9ADB-AF0E6D544255}"/>
+    <hyperlink ref="D46" r:id="rId31" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00711-2024-discontralamujer_202406211913.pdf" xr:uid="{A807DF54-F30B-4D2D-B64C-0A991E05BD3C}"/>
+    <hyperlink ref="F47" r:id="rId32" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00702-2024-880_202406191912.pdf" xr:uid="{F23B00AA-1258-442D-8D04-C265640B6C5C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57C2606-E84A-4F79-A9C3-A9F79491DE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76805CB4-919F-4628-BB54-EA41821B8849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D26AE97-4C41-47E9-91CF-F8338B472457}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5DD59016-1374-425A-9E0B-659B46275EE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
+    <sheet name="reporte_general29-06" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-06-22.</t>
+    <t>De 2024-01-01 al 2024-06-29.</t>
   </si>
   <si>
     <t>No.</t>
@@ -70,169 +70,166 @@
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 342, 419, 422, 531, 658, 678, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,344,350,368,369,371,375,385,366,391,398,399,418,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,710,</t>
+    <t xml:space="preserve">278, 342, 531, 658, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,678,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">696, </t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,710,</t>
+    <t xml:space="preserve">730, 734, </t>
+  </si>
+  <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t>707 , 710 ,</t>
+    <t xml:space="preserve">553, 707, 719, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBERNACIÓN</t>
+  </si>
+  <si>
+    <t>190,259,350,476,509,641,655,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625, 728, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
+  </si>
+  <si>
+    <t>737 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 34, 603, 644, 657, 659, 675, 685, 686, 699, 710, 722, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,613,614,617,627,630,638,639,641,642,669,690,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476, 713, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,499,531,578,621,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE CULTURA</t>
+  </si>
+  <si>
+    <t>734 ,</t>
+  </si>
+  <si>
+    <t>64,80,85,169,190,350,437,476,615,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>675 , 703 , 710 , 737 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, 673, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
+  </si>
+  <si>
+    <t>726 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626, 631, 703, 705, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">684, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,687,704,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711, </t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,721,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE EDUCACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">691, </t>
+  </si>
+  <si>
+    <t>190,192,350,438,476,710,</t>
+  </si>
+  <si>
+    <t>CONTRALORÍA MUNICIPAL</t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL OPDAPAS</t>
+  </si>
+  <si>
+    <t>736 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701, 712, 720, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL IMCUFIDEM</t>
+  </si>
+  <si>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
     <t xml:space="preserve">553, </t>
   </si>
   <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBERNACIÓN</t>
-  </si>
-  <si>
-    <t>190,259,350,476,509,641,655,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">625, 655, 671, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 34, 167, 603, 644, 657, 659, 675, 685, 686, 699, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,613,614,617,627,630,638,639,641,642,669,690,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
-  </si>
-  <si>
-    <t>710 , 713 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">476, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,499,531,578,621,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE CULTURA</t>
-  </si>
-  <si>
-    <t>710,</t>
-  </si>
-  <si>
-    <t>64,80,85,169,190,350,437,476,615,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
-  </si>
-  <si>
-    <t>675 , 703 , 710 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, 673, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
-  </si>
-  <si>
-    <t>703 , 705 , 710 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">626, 631, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">684, 687, 704, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
-  </si>
-  <si>
-    <t>711 ,</t>
-  </si>
-  <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE EDUCACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">691, </t>
-  </si>
-  <si>
-    <t>190,192,350,438,476,710,</t>
-  </si>
-  <si>
-    <t>CONTRALORÍA MUNICIPAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">697, 698, 700, 706, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL OPDAPAS</t>
-  </si>
-  <si>
-    <t>712 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL IMCUFIDEM</t>
-  </si>
-  <si>
-    <t>66,188,190,245,350,443,476,492,516,538,633,634,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL SMDIF</t>
-  </si>
-  <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,</t>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
@@ -244,19 +241,22 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">695, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,710,</t>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
   </si>
   <si>
+    <t>190,350,476,710,</t>
+  </si>
+  <si>
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
   </si>
   <si>
-    <t>147,190,350,355,476,582,</t>
+    <t>729 ,</t>
+  </si>
+  <si>
+    <t>147,190,350,355,476,582,710,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ASESORES</t>
@@ -265,7 +265,7 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,</t>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">210, 529, </t>
   </si>
   <si>
-    <t>136,190,350,355,471,476,677,710,</t>
+    <t>136,190,350,355,471,476,677,710,718,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
@@ -322,10 +322,10 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 , 710 ,</t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,</t>
+    <t>699 ,</t>
+  </si>
+  <si>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -343,13 +343,13 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 389 , 710 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 691, 697, 700, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,476,499,698,</t>
+    <t>92 , 389 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,476,499,691,698,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
@@ -361,13 +361,13 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>714 , 715 , 716 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,708,709,710,</t>
+    <t>731 , 732 , 733 , 734 , 735 , 738 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">717, 725, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,723,724,727,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -539,7 +539,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,12 +764,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCC0DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1020,9 +1014,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,10 +1409,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B6CF45-12B9-45A7-A197-DB3C6CD6F493}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1343E4-28C1-42D2-8375-11D75827E9EC}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1430,9 +1421,9 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -1440,44 +1431,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -1579,7 +1570,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>16</v>
@@ -1589,7 +1580,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>17</v>
@@ -1607,9 +1598,9 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="6">
@@ -1617,7 +1608,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>20</v>
@@ -1630,27 +1621,25 @@
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1658,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1678,35 +1667,35 @@
         <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.5">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1714,29 +1703,27 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="101.5">
@@ -1744,16 +1731,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>34</v>
@@ -1763,7 +1750,7 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>35</v>
@@ -1776,27 +1763,25 @@
       <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1804,27 +1789,27 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6"/>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="12">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" s="9">
-        <v>9</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.5">
@@ -1832,19 +1817,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="10">
         <v>9</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1854,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1862,29 +1847,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="10">
+        <v>4</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29">
@@ -1892,27 +1877,27 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1920,27 +1905,27 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6"/>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1948,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1958,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1968,7 +1953,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="72.5">
@@ -1976,27 +1961,25 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="10">
-        <v>4</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="9">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5">
@@ -2004,19 +1987,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -2026,22 +2009,20 @@
         <v>31</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>0</v>
       </c>
@@ -2051,10 +2032,10 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2062,29 +2043,27 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="10">
         <v>1</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2092,7 +2071,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2112,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2120,27 +2099,27 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2148,14 +2127,12 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6">
         <v>0</v>
       </c>
@@ -2165,10 +2142,10 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2176,24 +2153,24 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="12">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>78</v>
@@ -2214,17 +2191,15 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2238,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="6">
         <v>0</v>
@@ -2249,7 +2224,7 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>81</v>
@@ -2277,7 +2252,7 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>84</v>
@@ -2346,16 +2321,16 @@
       <c r="B34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6"/>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="G34" s="6">
         <v>0</v>
       </c>
@@ -2581,9 +2556,9 @@
         <v>99</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E43" s="6">
@@ -2595,7 +2570,7 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>101</v>
@@ -2639,7 +2614,7 @@
         <v>106</v>
       </c>
       <c r="C45" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>107</v>
@@ -2655,7 +2630,7 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>109</v>
@@ -2668,16 +2643,16 @@
       <c r="B46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6"/>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="G46" s="6">
         <v>0</v>
       </c>
@@ -2689,7 +2664,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="232">
+    <row r="47" spans="1:10" ht="246.5">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -2697,15 +2672,15 @@
         <v>112</v>
       </c>
       <c r="C47" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E47" s="10">
-        <v>1</v>
-      </c>
-      <c r="F47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>114</v>
       </c>
       <c r="G47" s="6">
@@ -2713,7 +2688,7 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="9">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>115</v>
@@ -2737,19 +2712,19 @@
         <v>116</v>
       </c>
       <c r="C49" s="6">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>997</v>
+        <v>1033</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2760,38 +2735,34 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{991CAC63-4F4E-4A15-8844-C6458508DC10}"/>
-    <hyperlink ref="F8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00696-2024-878_202406181921.pdf" xr:uid="{9E73F310-791F-4DD3-A8B8-4772F32007EB}"/>
-    <hyperlink ref="F9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{9B8F0C24-73B9-4373-A7A5-C2BC8F19E19A}"/>
-    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{DC432FE8-0AB9-497B-830E-4CC86C75AD91}"/>
-    <hyperlink ref="D12" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3BC53104-49E3-479D-A2FB-0E5B2743DB14}"/>
-    <hyperlink ref="F12" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{273CCEE8-E120-4CD1-BDA2-6A0D84F41B95}"/>
-    <hyperlink ref="D13" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C6782607-D840-489E-995F-282934F765A5}"/>
-    <hyperlink ref="F14" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00476-2024-CIRCULARSP02.pdf" xr:uid="{27165C29-2F28-4025-8B33-AE6DB531060D}"/>
-    <hyperlink ref="D19" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00711-2024-discontralamujer_202406211913.pdf" xr:uid="{DE009BDB-71D2-4DF1-B524-8F7F12A2CFA0}"/>
-    <hyperlink ref="F20" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{B8B663F4-4739-4EEA-8B50-A085D43A5C2B}"/>
-    <hyperlink ref="D22" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00712-2024-5588_202406211914.pdf" xr:uid="{9B5B69BA-D38E-412B-808A-08CCF6C74425}"/>
-    <hyperlink ref="F22" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00701-2024-quincuagesima_202406191359.pdf" xr:uid="{B1254937-E468-4DDC-B134-E93E561C2647}"/>
-    <hyperlink ref="D23" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C4BB0C75-77FE-4B14-81AA-42E349A45732}"/>
-    <hyperlink ref="D24" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{93891EF9-BD48-491F-A7A9-16B52FFB9944}"/>
-    <hyperlink ref="F24" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{8041D621-632A-41FC-A94D-2D51FF1402F0}"/>
-    <hyperlink ref="D25" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{7FFC2CD4-B416-4127-A1C7-77328058CC1A}"/>
-    <hyperlink ref="F26" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00695-2024-876_202406181919.pdf" xr:uid="{C5604454-E3AB-4D5B-830B-8459F8C7ACB0}"/>
-    <hyperlink ref="D27" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{2CAF52E1-7D50-4154-A7BD-D6259D07E7F5}"/>
-    <hyperlink ref="D30" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00712-2024-5588_202406211914.pdf" xr:uid="{79CA50FA-4A44-480F-9FB6-495C57F8A2F5}"/>
-    <hyperlink ref="D32" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{81E630A0-4D75-4EB8-9C3F-9110CD96A8D3}"/>
-    <hyperlink ref="F33" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{43E60398-F06A-4032-8FC8-387775BD001D}"/>
-    <hyperlink ref="D34" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D7979079-4113-4C2C-9CDE-4EEA25055E3B}"/>
-    <hyperlink ref="D35" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{550B1C46-3249-4813-B466-BD70C1849E62}"/>
-    <hyperlink ref="D36" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{4026D9D4-2A9F-48AE-9307-DC4FE4E563D4}"/>
-    <hyperlink ref="D37" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{FCC30FD0-C388-4AC0-B4A7-AE2592E19B2A}"/>
-    <hyperlink ref="D38" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{F9108E9D-AC84-4699-B5FD-236CECF7CF5E}"/>
-    <hyperlink ref="D39" r:id="rId27" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EFFD251B-6D86-4C20-9D28-CC8AA7C9B16F}"/>
-    <hyperlink ref="D40" r:id="rId28" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{ABC463D0-7DD4-46C4-96C4-1F388DD3C8DE}"/>
-    <hyperlink ref="D41" r:id="rId29" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{665BB385-0B34-448A-9423-09586224A9E2}"/>
-    <hyperlink ref="D42" r:id="rId30" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{94CD69E0-D7B0-4426-9ADB-AF0E6D544255}"/>
-    <hyperlink ref="D46" r:id="rId31" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00711-2024-discontralamujer_202406211913.pdf" xr:uid="{A807DF54-F30B-4D2D-B64C-0A991E05BD3C}"/>
-    <hyperlink ref="F47" r:id="rId32" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00702-2024-880_202406191912.pdf" xr:uid="{F23B00AA-1258-442D-8D04-C265640B6C5C}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D2A27F70-761D-4DEF-9B10-8D081D23D1E3}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{85AB4E72-4AE6-41DB-BFB5-30F94173F263}"/>
+    <hyperlink ref="F12" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{4A557A52-087F-460D-896D-0B4990D8F29A}"/>
+    <hyperlink ref="D13" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00737-2024-932_202406281909.pdf" xr:uid="{9A49BD39-EF50-4980-AFF4-22E0751ED764}"/>
+    <hyperlink ref="D15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{325CD422-619F-4B10-AB4F-8E81DEB412BA}"/>
+    <hyperlink ref="D17" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00726-2024-918_202406261910.pdf" xr:uid="{C93ACC77-C6A1-4E8D-A12D-1F3B78E2477A}"/>
+    <hyperlink ref="F18" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00684-2024-859_202406141918.pdf" xr:uid="{BB301B14-017A-4CC9-A3FB-D7E157467040}"/>
+    <hyperlink ref="F19" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00711-2024-discontralamujer_202406211913.pdf" xr:uid="{307E90EB-7221-47E3-B981-0D9C0EE1D3BB}"/>
+    <hyperlink ref="F20" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{98C8A303-AB0A-42E9-BDA5-49466F4A5F2A}"/>
+    <hyperlink ref="D22" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00736-2024-931_202406281908.pdf" xr:uid="{4BBF0C3E-C4AA-4528-8BAA-90872D09601F}"/>
+    <hyperlink ref="F24" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{113EC49F-D74A-434A-AFA4-2FF2B82C7651}"/>
+    <hyperlink ref="D25" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8A5E44FA-F5EC-47E6-8C35-3B1A88092CCB}"/>
+    <hyperlink ref="D26" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{D9772956-1F5D-46FF-9331-5F3C449DE4AF}"/>
+    <hyperlink ref="D28" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00729-2024-916_202406281521.pdf" xr:uid="{D9C8F9DF-9F69-40AA-B638-882966FE8FD2}"/>
+    <hyperlink ref="D30" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00736-2024-931_202406281908.pdf" xr:uid="{A981B060-7C6A-4425-9B2A-A09A9FD608BD}"/>
+    <hyperlink ref="D32" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A5EC7841-D277-4701-9658-4335A3F3EEC1}"/>
+    <hyperlink ref="F33" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{9FBAED7D-4236-4BCA-8234-AD6964B9F4BA}"/>
+    <hyperlink ref="F34" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3EE3DE09-EC3E-4433-9F97-7EA6C86D516C}"/>
+    <hyperlink ref="D35" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{ADF62B2E-E292-4687-834B-7476F08F1A83}"/>
+    <hyperlink ref="D36" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1EFAB5A2-5768-4C9D-A330-C1A613A33E29}"/>
+    <hyperlink ref="D37" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EE40470D-3A17-48E1-B7B9-FA748343047B}"/>
+    <hyperlink ref="D38" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D87390DE-C22D-4BB4-9D10-6B349B547C9B}"/>
+    <hyperlink ref="D39" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8BB2B7E0-FCB4-479F-82EF-5077496A0781}"/>
+    <hyperlink ref="D40" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0AC8F615-206C-4A9F-9C79-20BC60E4B12A}"/>
+    <hyperlink ref="D41" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5445A427-AF14-412D-AA68-BCE576193B7A}"/>
+    <hyperlink ref="D42" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A457B9AF-E228-4D19-902D-7BE05271DB6A}"/>
+    <hyperlink ref="D43" r:id="rId27" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{244810AE-87F8-4FE4-8214-731CBDD18B3F}"/>
+    <hyperlink ref="F46" r:id="rId28" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00711-2024-discontralamujer_202406211913.pdf" xr:uid="{AD0AF8AE-F6D8-4B7E-840C-E0972681D969}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
